--- a/angular/src/assets/sampleFiles/master/AccessoriesSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/master/AccessoriesSampleFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\tmss-ssa-sales-web\angular\src\assets\sampleFiles\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toandepzai\Desktop\Root\sales\angular\src\assets\sampleFiles\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199E0F4-D12C-4920-9DE6-12FF66DA991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC93566-9CD6-48EA-8C9C-A339EE1459F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{7EF34FFD-CE5E-419A-A3E7-7AEA914E4D6E}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A6160017-A508-48B7-9630-A25F7ED85773}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Dealer</t>
   </si>
@@ -334,13 +334,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,16 +622,16 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -676,10 +677,13 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -747,8 +751,8 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>490000</v>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,8 +786,8 @@
       <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3">
-        <v>590000</v>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,8 +821,8 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
-        <v>690000</v>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
